--- a/TestData/Gamma_SingleSgInfiniteBus_ForSim.xlsx
+++ b/TestData/Gamma_SingleSgInfiniteBus_ForSim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A85828-DD70-4EE0-938B-E022C07F75E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36171CA2-5B54-4749-BBDB-728B73A90A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -784,19 +784,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <f>C5*10000</f>
-        <v>35000</v>
+        <f>C5*100000</f>
+        <v>5000</v>
       </c>
       <c r="D4" s="2">
         <f>D5*100000</f>
         <v>1000000</v>
       </c>
       <c r="E4" s="2">
-        <v>1E-3</v>
+        <v>1.0000000000000001E-9</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F5" si="0">E4/10</f>
-        <v>1E-4</v>
+        <f>E4/10</f>
+        <v>1E-10</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>3.5</v>
+        <v>0.05</v>
       </c>
       <c r="D5" s="2">
         <v>10</v>
@@ -819,7 +819,7 @@
         <v>0.05</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F5" si="0">E5/10</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G5" s="2"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1011,8 +1011,8 @@
         <v>24</v>
       </c>
       <c r="B3" s="1">
-        <f>B4*1000</f>
-        <v>60000</v>
+        <f>B4*5000</f>
+        <v>300000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
